--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Documents\GitHub\shimoni_reef_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADADD56-EEB5-4D11-9C2A-9107F920B1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1C7CA6-191C-45AA-A165-80533765A9A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{ABF00EAA-42FA-4652-B632-DC809062EC91}"/>
   </bookViews>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -168,7 +170,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +488,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>-4.6500000000000004</v>
+        <v>-4.649</v>
       </c>
       <c r="C2" s="5">
         <v>39.387</v>
@@ -528,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <v>-4.6589999999999998</v>
+        <v>-4.6559999999999997</v>
       </c>
       <c r="C3" s="5">
         <v>39.381</v>
@@ -542,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5">
-        <v>-4.6900000000000004</v>
+        <v>-4.6879999999999997</v>
       </c>
       <c r="C4" s="5">
-        <v>39.396999999999998</v>
+        <v>39.398000000000003</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -570,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5">
-        <v>-4.7149999999999999</v>
+        <v>-4.7119999999999997</v>
       </c>
       <c r="C6" s="5">
         <v>39.380000000000003</v>
@@ -584,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <v>-4.6539999999999999</v>
+        <v>-4.6520000000000001</v>
       </c>
       <c r="C7" s="5">
-        <v>39.363999999999997</v>
+        <v>39.363</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
